--- a/medicine/Mort/Cimetière_de_Cachan/Cimetière_de_Cachan.xlsx
+++ b/medicine/Mort/Cimetière_de_Cachan/Cimetière_de_Cachan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cachan</t>
+          <t>Cimetière_de_Cachan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Cachan est le cimetière municipal de la ville de Cachan dans la banlieue parisienne du Val-de-Marne. Il est dominé par l'aqueduc Médicis, le long de la rue du Chemin-de-Fer, et est bordé au sud par l'avenue Carnot[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Cachan est le cimetière municipal de la ville de Cachan dans la banlieue parisienne du Val-de-Marne. Il est dominé par l'aqueduc Médicis, le long de la rue du Chemin-de-Fer, et est bordé au sud par l'avenue Carnot.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cachan</t>
+          <t>Cimetière_de_Cachan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un ancien cimetière se trouvait prés de l'église Saint-Denys, et son déplacement fut décidé en 1811[2] pour être inauguré en 1823 à l'emplacement de l'ancien cimetière paroissial[3]. Il comporte une partie ancienne bien préservée avec nombre de stèles et de clôtures de fer forgé et a été étendu à plusieurs reprises, ce qui en fait un vaste cimetière. L'ancienne entrée avec une maison de service construite en 1866 a été murée. Un grand tombeau collectif abrite les dépouilles de deux cent-trente soldats de la guerre de 1870.  Au milieu de la partie ancienne, est érigée la haute croix du monument d’un ancien curé qui tient lieu de calvaire au cimetière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ancien cimetière se trouvait prés de l'église Saint-Denys, et son déplacement fut décidé en 1811 pour être inauguré en 1823 à l'emplacement de l'ancien cimetière paroissial. Il comporte une partie ancienne bien préservée avec nombre de stèles et de clôtures de fer forgé et a été étendu à plusieurs reprises, ce qui en fait un vaste cimetière. L'ancienne entrée avec une maison de service construite en 1866 a été murée. Un grand tombeau collectif abrite les dépouilles de deux cent-trente soldats de la guerre de 1870.  Au milieu de la partie ancienne, est érigée la haute croix du monument d’un ancien curé qui tient lieu de calvaire au cimetière.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cachan</t>
+          <t>Cimetière_de_Cachan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Baldus (1813-1889), peintre et photographe
 Claude-Louis Berthollet (1748-1822), chimiste, sénateur et comte d'Empire, pair de France, et son épouse Marie-Marguerite Baur, belle-sœur de Gaspard Monge
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Cachan</t>
+          <t>Cimetière_de_Cachan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Station du RER « Arcueil-Cachan »</t>
         </is>
